--- a/Onedrive All Files not in Folders/Home and Discover Tab Promos.xlsx
+++ b/Onedrive All Files not in Folders/Home and Discover Tab Promos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/raghavendra_kamath_nrg_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{BB6DED15-1267-4BE3-AC2E-098292136697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F1F123-A19F-4F77-BB48-EDE89B146F19}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{BB6DED15-1267-4BE3-AC2E-098292136697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342EFE97-066B-435A-B1DA-D956A31223A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DFBDC98-7D2A-4C3B-9239-12EF48456EC5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Protection Plans</t>
   </si>
@@ -56,34 +56,61 @@
     <t>Promos</t>
   </si>
   <si>
-    <t>Surge, AC/Heat,Electric Line and Plumbing</t>
-  </si>
-  <si>
-    <t>Vivint</t>
-  </si>
-  <si>
-    <t>Goal Zero and Whole-home Generators</t>
-  </si>
-  <si>
-    <t>Make it Solar,Reliant EcoShare and DoD</t>
-  </si>
-  <si>
     <t>Discover</t>
   </si>
   <si>
-    <t>Surge Protect, Vivint,AC and Heater Protect,DoD,Average Billing,Elctrical and Surge Protect,Make it Solar and Reliant Ecoshare</t>
-  </si>
-  <si>
     <t>Tabs and Promos</t>
   </si>
   <si>
     <t>Home(Dashboard)</t>
   </si>
   <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>1)Surge Protect</t>
+  </si>
+  <si>
+    <t>2)AC and Heat Protect</t>
+  </si>
+  <si>
+    <t>3)DoD</t>
+  </si>
+  <si>
+    <t>4)Average Billing</t>
+  </si>
+  <si>
+    <t>5)Electrical line and Surge Protect</t>
+  </si>
+  <si>
+    <t>6)Make it Solar</t>
+  </si>
+  <si>
+    <t>7)Reliant Ecoshare</t>
+  </si>
+  <si>
+    <t>3)Electric Protect</t>
+  </si>
+  <si>
+    <t>4)Plumbing Protect</t>
+  </si>
+  <si>
+    <t>5)Electric Line and Surge Protect</t>
+  </si>
+  <si>
+    <t>2)Reliant EcoShare</t>
+  </si>
+  <si>
+    <t>1)Make it Solar</t>
+  </si>
+  <si>
+    <t>1)Whole-home Generators</t>
+  </si>
+  <si>
+    <t>1)Vivint</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Carousel</t>
   </si>
 </sst>
 </file>
@@ -474,36 +501,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9263DA90-B081-4C24-BBF4-390D4CF6013E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -514,69 +541,153 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
@@ -585,12 +696,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c010059d-9eab-4c68-87ed-433a58c74c13" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,17 +931,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c010059d-9eab-4c68-87ed-433a58c74c13" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C39F69F-7491-4A4A-B98F-93CA775F3002}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBEE2EA3-3511-4B4B-9FD3-2B6A14900AC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c010059d-9eab-4c68-87ed-433a58c74c13"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ced5cf1b-9858-4fe4-9435-fb41333c5620"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -856,18 +976,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBEE2EA3-3511-4B4B-9FD3-2B6A14900AC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C39F69F-7491-4A4A-B98F-93CA775F3002}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c010059d-9eab-4c68-87ed-433a58c74c13"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ced5cf1b-9858-4fe4-9435-fb41333c5620"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>